--- a/Uploads/1_new_700.xlsx
+++ b/Uploads/1_new_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فيورى بالمانجا - 400 مل</t>
+    <t>ريد بل - 250 مل</t>
+  </si>
+  <si>
+    <t>فيورى جولد - 400 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +432,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19501</v>
+        <v>5151</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,10 +441,27 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>1065</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>7630</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>205</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_700.xlsx
+++ b/Uploads/1_new_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>ريد بل - 250 مل</t>
-  </si>
-  <si>
-    <t>فيورى جولد - 400 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,27 +438,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1065</v>
+        <v>1085</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>7630</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>205</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_700.xlsx
+++ b/Uploads/1_new_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,22 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ريد بل - 250 مل</t>
+    <t>مكرونة الملكة خواتم - 400 جم</t>
+  </si>
+  <si>
+    <t>بطارية ريموت افيريدى ازرق - 20 حجر</t>
+  </si>
+  <si>
+    <t>مكرونة الملكة مرمرية - 400 جم</t>
+  </si>
+  <si>
+    <t>شوتس شوكو - 12 قطعه</t>
+  </si>
+  <si>
+    <t>الطاووس خل أبيض طبيعي - delisted 900 مل</t>
+  </si>
+  <si>
+    <t>برسيل يدوى لافندر - 1.5 كجم</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +444,155 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5151</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1085</v>
+        <v>268</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>10780</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3772</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>10780</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>376</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>10780</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>260</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>21690</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>304</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>21690</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>879</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>164</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8872</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>348</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_700.xlsx
+++ b/Uploads/1_new_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,22 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مكرونة الملكة خواتم - 400 جم</t>
-  </si>
-  <si>
-    <t>بطارية ريموت افيريدى ازرق - 20 حجر</t>
-  </si>
-  <si>
-    <t>مكرونة الملكة مرمرية - 400 جم</t>
-  </si>
-  <si>
-    <t>شوتس شوكو - 12 قطعه</t>
-  </si>
-  <si>
-    <t>الطاووس خل أبيض طبيعي - delisted 900 مل</t>
-  </si>
-  <si>
-    <t>برسيل يدوى لافندر - 1.5 كجم</t>
+    <t>فيورى جولد - 400 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -413,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,155 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>26</v>
+        <v>7630</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>10780</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>3772</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>10780</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>376</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>10780</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>76</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>260</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>21690</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>304</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>21690</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>879</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>164</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>8872</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>348</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_700.xlsx
+++ b/Uploads/1_new_700.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فيورى جولد - 400 مل</t>
+    <t>ريد بل - 250 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>7630</v>
+        <v>5151</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>226</v>
+        <v>1203</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_700.xlsx
+++ b/Uploads/1_new_700.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ريد بل - 250 مل</t>
+    <t>مرقة دجاج كنور فاين فودز شريط - 8 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,16 +429,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5151</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1203</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_700.xlsx
+++ b/Uploads/1_new_700.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مرقة دجاج كنور فاين فودز شريط - 8 جم</t>
+    <t>اد-مي صلصة 24 ظرف - 35 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>159</v>
+        <v>11960</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_700.xlsx
+++ b/Uploads/1_new_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>اد-مي صلصة 24 ظرف - 35 جم</t>
+    <t>كوفى ميكس بونجورنو ظرف - 12 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,18 +429,35 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11960</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1704</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D3">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Uploads/1_new_700.xlsx
+++ b/Uploads/1_new_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كوفى ميكس بونجورنو ظرف - 12 جم</t>
+    <t>فيورى جولد - 400 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,35 +429,18 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>59</v>
+        <v>7630</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1704</v>
+        <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>71</v>
-      </c>
-      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Uploads/1_new_700.xlsx
+++ b/Uploads/1_new_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فيورى جولد - 400 مل</t>
+    <t>بيبسى - 2.43 لتر</t>
+  </si>
+  <si>
+    <t>ميرندا برتقال - 2.43 لتر</t>
+  </si>
+  <si>
+    <t>سفن اب - 2.43 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +435,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>7630</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,10 +444,44 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1429</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>206</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1446</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>206</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_700.xlsx
+++ b/Uploads/1_new_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>بيبسى - 2.43 لتر</t>
-  </si>
-  <si>
-    <t>ميرندا برتقال - 2.43 لتر</t>
-  </si>
-  <si>
-    <t>سفن اب - 2.43 لتر</t>
+    <t>لبن بخيره - 500 مل</t>
+  </si>
+  <si>
+    <t>لبن بخيره - 1 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,53 +432,36 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>589</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>206</v>
+        <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1429</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>206</v>
+        <v>444</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1446</v>
-      </c>
-      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>206</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_700.xlsx
+++ b/Uploads/1_new_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,31 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>لبن بخيره - 500 مل</t>
-  </si>
-  <si>
-    <t>لبن بخيره - 1 لتر</t>
+    <t>عصير سن توب توت مشكل - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب مانجو الفونسو - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب فواكه مشكلة - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب برتقال - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب اناناس - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب كشمش الاسود - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب تفاح - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب ليمون وردى - 250 مل</t>
+  </si>
+  <si>
+    <t>سن توب عصير دراجون فروت- 250 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +453,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>130</v>
+        <v>3889</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -441,15 +462,15 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>151</v>
+        <v>3891</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -458,10 +479,129 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3892</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>249</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3893</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>249</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>3894</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>249</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5945</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>249</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>5946</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>249</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>12621</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>249</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20649</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>249</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_700.xlsx
+++ b/Uploads/1_new_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,31 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير سن توب توت مشكل - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب مانجو الفونسو - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب فواكه مشكلة - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب برتقال - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب اناناس - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب كشمش الاسود - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب تفاح - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب ليمون وردى - 250 مل</t>
-  </si>
-  <si>
-    <t>سن توب عصير دراجون فروت- 250 مل</t>
+    <t>بيبسى - 2.43 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -422,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,155 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3889</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>3891</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>249</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3892</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>249</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>3893</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>249</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>3894</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>249</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>5945</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>249</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>5946</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>249</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>12621</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>249</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20649</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>249</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_700.xlsx
+++ b/Uploads/1_new_700.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>بيبسى - 2.43 لتر</t>
+    <t>اوكسى يدوى نسيم الشرق - 250 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,16 +429,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>589</v>
+        <v>11770</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_700.xlsx
+++ b/Uploads/1_new_700.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>اوكسى يدوى نسيم الشرق - 250 جم</t>
+    <t>الطاووس خل أبيض طبيعي - delisted 900 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11770</v>
+        <v>879</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_700.xlsx
+++ b/Uploads/1_new_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="87">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,241 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>الطاووس خل أبيض طبيعي - delisted 900 مل</t>
+    <t>عسل البوادى اسود - 355 جم</t>
+  </si>
+  <si>
+    <t>عصير جهينة كوكتيل - 235 مل</t>
+  </si>
+  <si>
+    <t>طحينة البوادى - 125 جم</t>
+  </si>
+  <si>
+    <t>عصير جهينة جوافة - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة مانجو - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة برتقال - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة عنب احمر - 235 مل</t>
+  </si>
+  <si>
+    <t>طحينة البوادى - 240 جم</t>
+  </si>
+  <si>
+    <t>نواعم بسكويت- 5 ج</t>
+  </si>
+  <si>
+    <t>حلو الشام بقسماط- 350 جم</t>
+  </si>
+  <si>
+    <t>عسل البوادى اسود - 190 جم</t>
+  </si>
+  <si>
+    <t>بسكويت دانش - 10 قطعه</t>
+  </si>
+  <si>
+    <t>بسكويت جولى - 10 قطعه</t>
+  </si>
+  <si>
+    <t>بسكاتو بسكويت كريمة شيكولاتة- 60 جرام</t>
+  </si>
+  <si>
+    <t>كلوركس كلور  أبيض عرض 2 في 1 - 950 مل</t>
+  </si>
+  <si>
+    <t>كيك كمارا تورنيدو كريمة الفانيليا و مربى الفراولة - 5 جنية</t>
+  </si>
+  <si>
+    <t>هابي فروتس مصاصة 60 قطعة- 2 ج</t>
+  </si>
+  <si>
+    <t>عصير سن توب توت مشكل - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب مانجو الفونسو - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب فواكه مشكلة - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب برتقال - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب اناناس - 250 مل</t>
+  </si>
+  <si>
+    <t>التمساح عسل نحل - 850 جم</t>
+  </si>
+  <si>
+    <t>عصير سن توب تفاح - 250 مل</t>
+  </si>
+  <si>
+    <t>أو جي بسكويت مغطس محشي فانيليا - 7 جنية</t>
+  </si>
+  <si>
+    <t>لانشون بست بيف زيتون  - 3.2 كجم</t>
+  </si>
+  <si>
+    <t>لانشون بست بيف ساده 3.2 كجم</t>
+  </si>
+  <si>
+    <t>شاى الكبوس - 100 جرام</t>
+  </si>
+  <si>
+    <t>مسحوق ليدر عادى لافندر - 2 كجم</t>
+  </si>
+  <si>
+    <t>مسحوق ليدر اتوماتيك جردل لافندر (1ك زيادة) - 5 كجم</t>
+  </si>
+  <si>
+    <t>بسكاتو دايجستا بسكوت مينى  ساده - 8 جنية</t>
+  </si>
+  <si>
+    <t>بسكاتو دايجستا ميني لايت - 8 جنية</t>
+  </si>
+  <si>
+    <t>عصير جهينة بينا كولادا - 235 مل</t>
+  </si>
+  <si>
+    <t>لارش كرواسون محشو كريمة بطعم البندق  - 10 جنية</t>
+  </si>
+  <si>
+    <t>لارش كرواسون محشو مربي الفراولة - 10 جنية</t>
+  </si>
+  <si>
+    <t>لارش كرواسون محشو كريمة وعسل - 10 جنية</t>
+  </si>
+  <si>
+    <t>عصير سن توب ليمون وردى - 250 مل</t>
+  </si>
+  <si>
+    <t>جوتيلا فن شوكليت كريمة الشوكولاتة بالبندق - 100 جم</t>
+  </si>
+  <si>
+    <t>جوتيلا ميني كريمة الشوكولاتة بالبندق - 30 جم</t>
+  </si>
+  <si>
+    <t>جوتيلا بانانا شوكليت كريمة الشوكولاتة بالبندق - 55 جم</t>
+  </si>
+  <si>
+    <t>جوتيلا بانانا شوكليت كريمة الشوكولاتة البيضاء - 55 جم</t>
+  </si>
+  <si>
+    <t>جوتيلا بانانا شوكليت كريمة الشوكولاتة بطعم المانجو - 55 جم</t>
+  </si>
+  <si>
+    <t>جوتيلا بسكي لافا كريمة   الشوكولاتة بالبندق مع قطع البسكويت - 60 جم</t>
+  </si>
+  <si>
+    <t>جوتيلا بسكي لافا كريمة الشوكولاتة البيضاء مع قطع البسكويت - 60 جم</t>
+  </si>
+  <si>
+    <t>جوتيلا بسكي لافا كريمة الشوكولاتة بطعم المانجو مع قطع البسكويت - 60 جم</t>
+  </si>
+  <si>
+    <t>بسكويت تاو تاو فانتوم جوز الهند - 6 قطعه</t>
+  </si>
+  <si>
+    <t>بسكويت باى لاك بالتمر - 10 جنية</t>
+  </si>
+  <si>
+    <t>ويفر تاوتاو كليك شوكولاتة بيضاء - 5 جنية</t>
+  </si>
+  <si>
+    <t>حلو الشام فانيليا  - 2 جم</t>
+  </si>
+  <si>
+    <t>حلو الشام رايت شيف جديد - 18 جم</t>
+  </si>
+  <si>
+    <t>رينول  3 بسعر 2 عرض خاص - 250 مل</t>
+  </si>
+  <si>
+    <t>رينول مطهر عام - 3 بسعر 2 عرض  - 500 مل</t>
+  </si>
+  <si>
+    <t>رينول مطهر عام - 3 بسعر 2 عرض - 750 مل</t>
+  </si>
+  <si>
+    <t>تويلكس منظف ومطهر تواليت 3 قطعه عرض - 500 مل</t>
+  </si>
+  <si>
+    <t>تويلكس منظف ومطهر تواليت 2 قطعه - عرض 500 مل</t>
+  </si>
+  <si>
+    <t>كمارا مصاصة طعم الفواكه محشو لبان - 50 قطعه</t>
+  </si>
+  <si>
+    <t>بسكويت تاوتاو فانتوم كاكاو بكريمة الفانيليا 4 اكس - 5 جنية</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر - 130 جرام</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر - 200 جرام</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر - 400 جرام</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر - 1.5 كجم</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر  - 2 كجم</t>
+  </si>
+  <si>
+    <t>ليندو برو برائحه اللافندر - 2.5 كجم</t>
+  </si>
+  <si>
+    <t>اهلاوي بسكويت ساده كابيتيانو حجم جديد - 5 جنية</t>
+  </si>
+  <si>
+    <t>سن توب عصير دراجون فروت- 250 مل</t>
+  </si>
+  <si>
+    <t>سن توب عصير يوسفي مشطشط - 250 مل</t>
+  </si>
+  <si>
+    <t>ﺑﺎﻯ ﻻﻙ ﻭﻳﻔﺮ ﺑﺴﻜﻮﻳﺖ ﺑﻜﺮﻳﻤﺔ ﺍﻟﺤﻠﻴﺐ - 5 جنية</t>
+  </si>
+  <si>
+    <t>ﺑﺎﻯ ﻻﻙ ﻭﻳﻔﺮ ﺑﺴﻜﻮﻳﺖ ﻛﺎﻛﺎﻭ ﺑﻜﺮﻳﻤﺔ ﺟﻮﺯ ﺍﻟﻬﻨﺪ - 5 جنية</t>
+  </si>
+  <si>
+    <t>باى لاك معمول ب السمسم محشو ب التمر - 5 جنية</t>
+  </si>
+  <si>
+    <t>شورتى بسكويت - 10 جنية</t>
+  </si>
+  <si>
+    <t>سولا فواكه - 240 قطعه</t>
+  </si>
+  <si>
+    <t>باراديس طوفي - 240 قطعه</t>
+  </si>
+  <si>
+    <t>جوتيلا كريمة الشوكولاتة بالبندق  نباتي - 425 جم</t>
+  </si>
+  <si>
+    <t>جوتيلا كريمة الشوكولاتة بالبندق دارك - 425 جم</t>
+  </si>
+  <si>
+    <t>جوتيلا ميني كريمة الشوكولاتة بالبندق نباتي - 30 جم</t>
+  </si>
+  <si>
+    <t>جوتيلا كريمة الشوكولاتة بالبندق - 850 جم</t>
+  </si>
+  <si>
+    <t>ميني شورتي - 12 قطعه</t>
+  </si>
+  <si>
+    <t>ميني شاتو - 12 قطعه</t>
+  </si>
+  <si>
+    <t>ميني جولي - 12 قطعه</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +663,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>879</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,10 +672,2186 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>168</v>
+        <v>552</v>
       </c>
       <c r="E2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>138</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>276</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>142</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>190</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>336</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1075</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>336</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>336</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>268.75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>336</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>537.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>361</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>190</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>362</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>209</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>417</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>190</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>523</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>190</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>590</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1220.25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>590</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>590</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>305.25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>590</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>610.25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>972</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>48.5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>1514</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>248.5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>2103</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>353.5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>2103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>14.75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>2103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>88.5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>2103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>176.75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>2990</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>824.75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>2990</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>206.25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>2992</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>824.75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>2992</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>206.25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>3024</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>328.5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>3024</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>109.5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>3043</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>155.25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>3104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>97</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>3143</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>582</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>3143</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>97</v>
+      </c>
+      <c r="E34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>3889</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>255</v>
+      </c>
+      <c r="E35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>3891</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>255</v>
+      </c>
+      <c r="E36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>3892</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>255</v>
+      </c>
+      <c r="E37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>3893</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>255</v>
+      </c>
+      <c r="E38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>3894</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>255</v>
+      </c>
+      <c r="E39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>4671</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>815</v>
+      </c>
+      <c r="E40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>5946</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>255</v>
+      </c>
+      <c r="E41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>8059</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>264</v>
+      </c>
+      <c r="E42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>8059</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>9345</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1398</v>
+      </c>
+      <c r="E44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>9345</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45">
+        <v>332</v>
+      </c>
+      <c r="D45">
+        <v>233</v>
+      </c>
+      <c r="E45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>9761</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1398</v>
+      </c>
+      <c r="E46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>9761</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47">
+        <v>332</v>
+      </c>
+      <c r="D47">
+        <v>233</v>
+      </c>
+      <c r="E47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>10093</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>2100</v>
+      </c>
+      <c r="E48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>10093</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>35</v>
+      </c>
+      <c r="E49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>10124</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>275</v>
+      </c>
+      <c r="E50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>10181</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51">
+        <v>26</v>
+      </c>
+      <c r="D51">
+        <v>220</v>
+      </c>
+      <c r="E51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>10587</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>280.75</v>
+      </c>
+      <c r="E52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>10587</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>70.25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>10588</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>280.5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>10588</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>70.25</v>
+      </c>
+      <c r="E55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>11611</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>209</v>
+      </c>
+      <c r="E56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>11930</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>195</v>
+      </c>
+      <c r="E57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>11931</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>195</v>
+      </c>
+      <c r="E58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>12379</v>
+      </c>
+      <c r="B59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>195</v>
+      </c>
+      <c r="E59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>12621</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>255</v>
+      </c>
+      <c r="E60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>12912</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1420</v>
+      </c>
+      <c r="E61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>12912</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>236.75</v>
+      </c>
+      <c r="E62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>12913</v>
+      </c>
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>880.25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>12913</v>
+      </c>
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>146.75</v>
+      </c>
+      <c r="E64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>12914</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>880.25</v>
+      </c>
+      <c r="E65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>12914</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>146.75</v>
+      </c>
+      <c r="E66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>12915</v>
+      </c>
+      <c r="B67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>880.25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>12915</v>
+      </c>
+      <c r="B68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>146.75</v>
+      </c>
+      <c r="E68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>12916</v>
+      </c>
+      <c r="B69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>880.25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>12916</v>
+      </c>
+      <c r="B70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>146.75</v>
+      </c>
+      <c r="E70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>12917</v>
+      </c>
+      <c r="B71" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>880.25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>12917</v>
+      </c>
+      <c r="B72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>146.75</v>
+      </c>
+      <c r="E72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>12918</v>
+      </c>
+      <c r="B73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>880.25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>12918</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>146.75</v>
+      </c>
+      <c r="E74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>12919</v>
+      </c>
+      <c r="B75" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>880.25</v>
+      </c>
+      <c r="E75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>12919</v>
+      </c>
+      <c r="B76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>146.75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>13025</v>
+      </c>
+      <c r="B77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>291</v>
+      </c>
+      <c r="E77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>13025</v>
+      </c>
+      <c r="B78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>24.25</v>
+      </c>
+      <c r="E78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>13030</v>
+      </c>
+      <c r="B79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>194</v>
+      </c>
+      <c r="E79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>13037</v>
+      </c>
+      <c r="B80" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>594</v>
+      </c>
+      <c r="E80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>13037</v>
+      </c>
+      <c r="B81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>49.5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>13324</v>
+      </c>
+      <c r="B82" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>330</v>
+      </c>
+      <c r="E82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>13324</v>
+      </c>
+      <c r="B83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>27.5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>13326</v>
+      </c>
+      <c r="B84" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>612</v>
+      </c>
+      <c r="E84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>13326</v>
+      </c>
+      <c r="B85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>51</v>
+      </c>
+      <c r="E85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>13462</v>
+      </c>
+      <c r="B86" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>465</v>
+      </c>
+      <c r="E86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>13467</v>
+      </c>
+      <c r="B87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>784</v>
+      </c>
+      <c r="E87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>13469</v>
+      </c>
+      <c r="B88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>546</v>
+      </c>
+      <c r="E88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>13470</v>
+      </c>
+      <c r="B89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>284</v>
+      </c>
+      <c r="E89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>13472</v>
+      </c>
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>284</v>
+      </c>
+      <c r="E90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>13491</v>
+      </c>
+      <c r="B91" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>873</v>
+      </c>
+      <c r="E91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>13491</v>
+      </c>
+      <c r="B92" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>72.75</v>
+      </c>
+      <c r="E92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>13498</v>
+      </c>
+      <c r="B93" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>582</v>
+      </c>
+      <c r="E93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>13498</v>
+      </c>
+      <c r="B94" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>48.5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>13598</v>
+      </c>
+      <c r="B95" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>90.5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>13599</v>
+      </c>
+      <c r="B96" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>93</v>
+      </c>
+      <c r="E96" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>13600</v>
+      </c>
+      <c r="B97" t="s">
+        <v>66</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>82.75</v>
+      </c>
+      <c r="E97" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>13604</v>
+      </c>
+      <c r="B98" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>284.25</v>
+      </c>
+      <c r="E98" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>13606</v>
+      </c>
+      <c r="B99" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>366.25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>13608</v>
+      </c>
+      <c r="B100" t="s">
+        <v>69</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>581.25</v>
+      </c>
+      <c r="E100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>20486</v>
+      </c>
+      <c r="B101" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>288</v>
+      </c>
+      <c r="E101" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>20486</v>
+      </c>
+      <c r="B102" t="s">
+        <v>70</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>48</v>
+      </c>
+      <c r="E102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>20649</v>
+      </c>
+      <c r="B103" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>255</v>
+      </c>
+      <c r="E103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>20650</v>
+      </c>
+      <c r="B104" t="s">
+        <v>72</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>255</v>
+      </c>
+      <c r="E104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>20965</v>
+      </c>
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>582</v>
+      </c>
+      <c r="E105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>20965</v>
+      </c>
+      <c r="B106" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>48.5</v>
+      </c>
+      <c r="E106" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>20966</v>
+      </c>
+      <c r="B107" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>582</v>
+      </c>
+      <c r="E107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>20966</v>
+      </c>
+      <c r="B108" t="s">
+        <v>74</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>48.5</v>
+      </c>
+      <c r="E108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>20969</v>
+      </c>
+      <c r="B109" t="s">
+        <v>75</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>582</v>
+      </c>
+      <c r="E109" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>20969</v>
+      </c>
+      <c r="B110" t="s">
+        <v>75</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>48.5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>21269</v>
+      </c>
+      <c r="B111" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>400</v>
+      </c>
+      <c r="E111" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>21269</v>
+      </c>
+      <c r="B112" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>100</v>
+      </c>
+      <c r="E112" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>21700</v>
+      </c>
+      <c r="B113" t="s">
+        <v>77</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1200</v>
+      </c>
+      <c r="E113" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>21700</v>
+      </c>
+      <c r="B114" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>100</v>
+      </c>
+      <c r="E114" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>21703</v>
+      </c>
+      <c r="B115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1200</v>
+      </c>
+      <c r="E115" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>21703</v>
+      </c>
+      <c r="B116" t="s">
+        <v>78</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>100</v>
+      </c>
+      <c r="E116" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>23604</v>
+      </c>
+      <c r="B117" t="s">
+        <v>79</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>520</v>
+      </c>
+      <c r="E117" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>23604</v>
+      </c>
+      <c r="B118" t="s">
+        <v>79</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>65</v>
+      </c>
+      <c r="E118" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>23605</v>
+      </c>
+      <c r="B119" t="s">
+        <v>80</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>700</v>
+      </c>
+      <c r="E119" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>23605</v>
+      </c>
+      <c r="B120" t="s">
+        <v>80</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="D120">
+        <v>175</v>
+      </c>
+      <c r="E120" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>23607</v>
+      </c>
+      <c r="B121" t="s">
+        <v>81</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>880.25</v>
+      </c>
+      <c r="E121" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>23607</v>
+      </c>
+      <c r="B122" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122">
+        <v>146.75</v>
+      </c>
+      <c r="E122" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>23854</v>
+      </c>
+      <c r="B123" t="s">
+        <v>82</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>500</v>
+      </c>
+      <c r="E123" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>23854</v>
+      </c>
+      <c r="B124" t="s">
+        <v>82</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
+      </c>
+      <c r="D124">
+        <v>125</v>
+      </c>
+      <c r="E124" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>23960</v>
+      </c>
+      <c r="B125" t="s">
+        <v>83</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>200</v>
+      </c>
+      <c r="E125" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>23960</v>
+      </c>
+      <c r="B126" t="s">
+        <v>83</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126">
+        <v>50</v>
+      </c>
+      <c r="E126" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>23961</v>
+      </c>
+      <c r="B127" t="s">
+        <v>84</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>400</v>
+      </c>
+      <c r="E127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>23961</v>
+      </c>
+      <c r="B128" t="s">
+        <v>84</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>100</v>
+      </c>
+      <c r="E128" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>23962</v>
+      </c>
+      <c r="B129" t="s">
+        <v>85</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>400</v>
+      </c>
+      <c r="E129" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>23962</v>
+      </c>
+      <c r="B130" t="s">
+        <v>85</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>100</v>
+      </c>
+      <c r="E130" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_700.xlsx
+++ b/Uploads/1_new_700.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كوكاكولا اكشن - 300 مل</t>
+    <t>بيبسى - 2.43 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>6935</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_700.xlsx
+++ b/Uploads/1_new_700.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,46 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>بيبسى - 2.43 لتر</t>
+    <t>نسكويك علبة- 77 جم</t>
+  </si>
+  <si>
+    <t>صابون ديتول الاصلى - 60 جم</t>
+  </si>
+  <si>
+    <t>صابون ديتول عناية بالبشرة - 60 جم</t>
+  </si>
+  <si>
+    <t>ديتول صابون كوول- 60 جم</t>
+  </si>
+  <si>
+    <t>صابون ديتول جدد نشاطك - 60 جم</t>
+  </si>
+  <si>
+    <t>فانتا برتقال ستار - 320 مل</t>
+  </si>
+  <si>
+    <t>جرين هاوس خضار سوتيه مكس - 400 جم</t>
+  </si>
+  <si>
+    <t>جرين هاوس خضار تورلي - 400 جم</t>
+  </si>
+  <si>
+    <t>عصير جهينة اورينتال خروب - 1 لتر</t>
+  </si>
+  <si>
+    <t>فوج عطر بخاخ فيكتور - 120 مل</t>
+  </si>
+  <si>
+    <t>تشيكيتيتا ناجتس - 400 جم</t>
+  </si>
+  <si>
+    <t>ابو الولد جبنة سبريد بالفلفل الحار 5 جنيه - 20 جم</t>
+  </si>
+  <si>
+    <t>بيبسي هضبه - 250 مل</t>
+  </si>
+  <si>
+    <t>جبنه دومتى جولد -- 250 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +468,240 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>589</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>156</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1199</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>186</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>186</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>4019</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>225</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="D7">
+        <v>339</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>8717</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8718</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>10605</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>531</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>13440</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1356</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>21814</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>25770</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>223</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>25958</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>26103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>654</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
